--- a/TradeTrxn.xlsx
+++ b/TradeTrxn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\LearnPython\Applications\Ticker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\InvestPortfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF78C0B-366D-49B0-84C9-1EB786C69FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12676E73-C668-45E7-ADDE-4343EE4B71C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUTU" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="83">
   <si>
     <t>Direction</t>
   </si>
@@ -283,7 +283,10 @@
     <t>2020-09-08, 11:02:35</t>
   </si>
   <si>
-    <t>2020-09-09, 09:58:56</t>
+    <t>2020-09-09, 09:32:25</t>
+  </si>
+  <si>
+    <t>2020-09-18, 10:23:01</t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,14 +360,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -592,31 +589,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -711,13 +688,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -3438,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12613CD9-D9CB-4A12-B888-FC58B278FE71}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:K21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,31 +4208,79 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="40">
         <v>10</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="40">
         <v>116.07</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="38">
+      <c r="F21" s="40">
+        <v>117.32</v>
+      </c>
+      <c r="G21" s="41">
+        <v>-1160.7</v>
+      </c>
+      <c r="H21" s="40">
         <v>-1</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="39" t="s">
+      <c r="I21" s="41">
+        <v>1161.7</v>
+      </c>
+      <c r="J21" s="40">
+        <v>0</v>
+      </c>
+      <c r="K21" s="40">
+        <v>12.5</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="45">
+        <v>5</v>
+      </c>
+      <c r="E22" s="45">
+        <v>109.4</v>
+      </c>
+      <c r="F22" s="45">
+        <v>106.84</v>
+      </c>
+      <c r="G22" s="45">
+        <v>-547</v>
+      </c>
+      <c r="H22" s="45">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="45">
+        <v>548</v>
+      </c>
+      <c r="J22" s="45">
+        <v>0</v>
+      </c>
+      <c r="K22" s="45">
+        <v>-12.8</v>
+      </c>
+      <c r="L22" s="46" t="s">
         <v>36</v>
       </c>
     </row>

--- a/TradeTrxn.xlsx
+++ b/TradeTrxn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\InvestPortfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12676E73-C668-45E7-ADDE-4343EE4B71C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9954F0-342E-4CD5-ACDE-3B2584BBE1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUTU" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="HSBC" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FUTU!$A$1:$G$79</definedName>
     <definedName name="FUTUDATA">FUTU!$A:$G</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="77">
   <si>
     <t>Direction</t>
   </si>
@@ -112,36 +113,6 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>Apple Inc</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>Zoom Video Communications Inc</t>
-  </si>
-  <si>
-    <t>SDOW</t>
-  </si>
-  <si>
-    <t>Ultrapro Short DOW 30 Proshares</t>
-  </si>
-  <si>
-    <t>TVIX</t>
-  </si>
-  <si>
-    <t>VelocityShares Daily 2x VIX Short Term ETN</t>
-  </si>
-  <si>
-    <t>Futu Holdings Limited</t>
-  </si>
-  <si>
-    <t>FDN</t>
-  </si>
-  <si>
-    <t>DJ Internet Index First Trust</t>
-  </si>
-  <si>
     <t>2020-08-07, 10:17:57</t>
   </si>
   <si>
@@ -268,9 +239,6 @@
     <t>GOOGL</t>
   </si>
   <si>
-    <t>FUTU</t>
-  </si>
-  <si>
     <t>Sea Limited</t>
   </si>
   <si>
@@ -287,6 +255,21 @@
   </si>
   <si>
     <t>2020-09-18, 10:23:01</t>
+  </si>
+  <si>
+    <t>2020-09-21, 10:19:00</t>
+  </si>
+  <si>
+    <t>2020-09-21, 10:19:21</t>
+  </si>
+  <si>
+    <t>2020-09-21, 09:43:47</t>
+  </si>
+  <si>
+    <t>2020-09-21, 10:17:53</t>
+  </si>
+  <si>
+    <t>2020-09-21, 09:43:01</t>
   </si>
 </sst>
 </file>
@@ -593,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -713,6 +696,21 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E79" sqref="E76:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,25 +1035,25 @@
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
-        <v>360</v>
+        <v>28.004999999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F2" s="4">
-        <v>720</v>
+        <v>2800.5</v>
       </c>
       <c r="G2" s="5">
-        <v>44082.940636574072</v>
+        <v>44096.018969907411</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1063,45 +1061,45 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>140.5</v>
+        <v>29.05</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F3" s="4">
-        <v>421.5</v>
+        <v>2905</v>
       </c>
       <c r="G3" s="5">
-        <v>44082.940081018518</v>
+        <v>44095.936793981484</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3">
-        <v>145.53</v>
+        <v>2900.6</v>
       </c>
       <c r="E4" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1455.3</v>
+        <v>2900.6</v>
       </c>
       <c r="G4" s="5">
-        <v>44082.9375462963</v>
+        <v>44095.930381944447</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1115,16 +1113,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>139.51</v>
+        <v>143.5</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
       </c>
       <c r="F5" s="4">
-        <v>1395.1</v>
+        <v>1435</v>
       </c>
       <c r="G5" s="5">
-        <v>44078.959027777775</v>
+        <v>44095.914386574077</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1132,22 +1130,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>942.81</v>
+        <v>450</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="4">
-        <v>1885.62</v>
+        <v>900</v>
       </c>
       <c r="G6" s="5">
-        <v>44078.93236111111</v>
+        <v>44095.913946759261</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1155,68 +1153,68 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1890.22</v>
+        <v>66</v>
+      </c>
+      <c r="D7" s="3">
+        <v>143.5</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
-        <v>1890.22</v>
+        <v>430.5</v>
       </c>
       <c r="G7" s="5">
-        <v>44061.97115740741</v>
+        <v>44095.902025462965</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1906.51</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13.1</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8" s="4">
-        <v>1906.51</v>
+        <v>1310</v>
       </c>
       <c r="G8" s="5">
-        <v>44061.965231481481</v>
+        <v>44095.901770833334</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1005.56</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
       <c r="F9" s="4">
-        <v>1005.56</v>
+        <v>1396.1</v>
       </c>
       <c r="G9" s="5">
-        <v>44061.928483796299</v>
+        <v>44095.901493055557</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1224,45 +1222,45 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
-        <v>140.62</v>
+        <v>360</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>703.1</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>720</v>
       </c>
       <c r="G10" s="5">
-        <v>44056.004641203705</v>
+        <v>44082.940636574072</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3">
-        <v>144.51</v>
+        <v>140.5</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4">
-        <v>1445.1</v>
+        <v>421.5</v>
       </c>
       <c r="G11" s="5">
-        <v>44053.911273148151</v>
+        <v>44082.940081018518</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1270,114 +1268,114 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>145.53</v>
+      </c>
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1088.01</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
       <c r="F12" s="4">
-        <v>1088.01</v>
+        <v>1455.3</v>
       </c>
       <c r="G12" s="5">
-        <v>44049.925787037035</v>
+        <v>44082.9375462963</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3183.62</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>139.51</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
-        <v>3183.62</v>
+        <v>1395.1</v>
       </c>
       <c r="G13" s="5">
-        <v>44049.91778935185</v>
+        <v>44078.959027777775</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>9.9499999999999993</v>
+        <v>942.81</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>995</v>
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1885.62</v>
       </c>
       <c r="G14" s="5">
-        <v>44049.913113425922</v>
+        <v>44078.93236111111</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
-        <v>153.52000000000001</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1890.22</v>
       </c>
       <c r="E15" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>2302.8000000000002</v>
+        <v>1890.22</v>
       </c>
       <c r="G15" s="5">
-        <v>44049.906400462962</v>
+        <v>44061.97115740741</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5.61</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1000</v>
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1906.51</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>5605</v>
+        <v>1906.51</v>
       </c>
       <c r="G16" s="5">
-        <v>44049.905462962961</v>
+        <v>44061.965231481481</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1385,22 +1383,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5.61</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1000</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1005.56</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>5610</v>
+        <v>1005.56</v>
       </c>
       <c r="G17" s="5">
-        <v>44049.900891203702</v>
+        <v>44061.928483796299</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1414,16 +1412,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="3">
-        <v>149.01</v>
+        <v>140.62</v>
       </c>
       <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1490.1</v>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>703.1</v>
       </c>
       <c r="G18" s="5">
-        <v>44049.895138888889</v>
+        <v>44056.004641203705</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1431,22 +1429,22 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
-        <v>5.71</v>
+        <v>144.51</v>
       </c>
       <c r="E19" s="3">
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4">
-        <v>5139</v>
+        <v>1445.1</v>
       </c>
       <c r="G19" s="5">
-        <v>44046.961377314816</v>
+        <v>44053.911273148151</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1454,22 +1452,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5.77</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1088.01</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>577</v>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1088.01</v>
       </c>
       <c r="G20" s="5">
-        <v>44046.951412037037</v>
+        <v>44049.925787037035</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1477,22 +1475,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5.77</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3183.62</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>1154</v>
+        <v>3183.62</v>
       </c>
       <c r="G21" s="5">
-        <v>44046.951412037037</v>
+        <v>44049.91778935185</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1500,91 +1498,91 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3">
-        <v>5.77</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3462</v>
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>995</v>
       </c>
       <c r="G22" s="5">
-        <v>44046.951412037037</v>
+        <v>44049.913113425922</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3">
+        <v>153.52000000000001</v>
+      </c>
+      <c r="E23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3123</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
       <c r="F23" s="4">
-        <v>9369</v>
+        <v>2302.8000000000002</v>
       </c>
       <c r="G23" s="5">
-        <v>44046.95076388889</v>
+        <v>44049.906400462962</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3138.86</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.61</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1000</v>
       </c>
       <c r="F24" s="4">
-        <v>9416.58</v>
+        <v>5605</v>
       </c>
       <c r="G24" s="5">
-        <v>44046.940567129626</v>
+        <v>44049.905462962961</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1066.45</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5.61</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1000</v>
       </c>
       <c r="F25" s="4">
-        <v>3199.35</v>
+        <v>5610</v>
       </c>
       <c r="G25" s="5">
-        <v>44046.939930555556</v>
+        <v>44049.900891203702</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1592,22 +1590,22 @@
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>149.01</v>
+      </c>
+      <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1056.58</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
       <c r="F26" s="4">
-        <v>3169.74</v>
+        <v>1490.1</v>
       </c>
       <c r="G26" s="5">
-        <v>44046.931481481479</v>
+        <v>44049.895138888889</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1621,16 +1619,16 @@
         <v>20</v>
       </c>
       <c r="D27" s="3">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="E27" s="3">
         <v>900</v>
       </c>
       <c r="F27" s="4">
-        <v>5112</v>
+        <v>5139</v>
       </c>
       <c r="G27" s="5">
-        <v>44046.917372685188</v>
+        <v>44046.961377314816</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1644,39 +1642,39 @@
         <v>20</v>
       </c>
       <c r="D28" s="3">
-        <v>5.71</v>
+        <v>5.77</v>
       </c>
       <c r="E28" s="3">
-        <v>900</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5139</v>
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>577</v>
       </c>
       <c r="G28" s="5">
-        <v>44046.910069444442</v>
+        <v>44046.951412037037</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3143.69</v>
+        <v>20</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5.77</v>
       </c>
       <c r="E29" s="3">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F29" s="4">
-        <v>9431.07</v>
+        <v>1154</v>
       </c>
       <c r="G29" s="5">
-        <v>44046.909849537034</v>
+        <v>44046.951412037037</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1684,22 +1682,22 @@
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3152.58</v>
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.77</v>
       </c>
       <c r="E30" s="3">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="F30" s="4">
-        <v>9457.74</v>
+        <v>3462</v>
       </c>
       <c r="G30" s="5">
-        <v>44046.905543981484</v>
+        <v>44046.951412037037</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1707,22 +1705,22 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="3">
-        <v>6.06</v>
+        <v>16</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3123</v>
       </c>
       <c r="E31" s="3">
-        <v>750</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4">
-        <v>4541.25</v>
+        <v>9369</v>
       </c>
       <c r="G31" s="5">
-        <v>44043.971087962964</v>
+        <v>44046.95076388889</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1730,22 +1728,22 @@
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3">
-        <v>6.18</v>
+        <v>16</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3138.86</v>
       </c>
       <c r="E32" s="3">
-        <v>750</v>
+        <v>3</v>
       </c>
       <c r="F32" s="4">
-        <v>4635</v>
+        <v>9416.58</v>
       </c>
       <c r="G32" s="5">
-        <v>44043.945833333331</v>
+        <v>44046.940567129626</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1753,22 +1751,22 @@
         <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="3">
-        <v>6.54</v>
+        <v>11</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1066.45</v>
       </c>
       <c r="E33" s="3">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4">
-        <v>3270</v>
+        <v>3199.35</v>
       </c>
       <c r="G33" s="5">
-        <v>44042.917905092596</v>
+        <v>44046.939930555556</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1776,27 +1774,27 @@
         <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3">
-        <v>6.59</v>
+        <v>11</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1056.58</v>
       </c>
       <c r="E34" s="3">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="F34" s="4">
-        <v>2634</v>
+        <v>3169.74</v>
       </c>
       <c r="G34" s="5">
-        <v>44042.916967592595</v>
+        <v>44046.931481481479</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
@@ -1805,21 +1803,21 @@
         <v>20</v>
       </c>
       <c r="D35" s="3">
-        <v>6.59</v>
+        <v>5.68</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>658.5</v>
+        <v>900</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5112</v>
       </c>
       <c r="G35" s="5">
-        <v>44042.916967592595</v>
+        <v>44046.917372685188</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -1828,44 +1826,44 @@
         <v>20</v>
       </c>
       <c r="D36" s="3">
-        <v>6.52</v>
+        <v>5.71</v>
       </c>
       <c r="E36" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F36" s="4">
-        <v>3257.5</v>
+        <v>5139</v>
       </c>
       <c r="G36" s="5">
-        <v>44042.912858796299</v>
+        <v>44046.910069444442</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="3">
-        <v>6.46</v>
+        <v>16</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3143.69</v>
       </c>
       <c r="E37" s="3">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
-        <v>3230</v>
+        <v>9431.07</v>
       </c>
       <c r="G37" s="5">
-        <v>44042.910127314812</v>
+        <v>44046.909849537034</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>15</v>
@@ -1874,44 +1872,44 @@
         <v>16</v>
       </c>
       <c r="D38" s="4">
-        <v>3035.59</v>
+        <v>3152.58</v>
       </c>
       <c r="E38" s="3">
         <v>3</v>
       </c>
       <c r="F38" s="4">
-        <v>9106.77</v>
+        <v>9457.74</v>
       </c>
       <c r="G38" s="5">
-        <v>44042.899664351855</v>
+        <v>44046.905543981484</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4">
-        <v>3021.02</v>
+        <v>20</v>
+      </c>
+      <c r="D39" s="3">
+        <v>6.06</v>
       </c>
       <c r="E39" s="3">
-        <v>3</v>
+        <v>750</v>
       </c>
       <c r="F39" s="4">
-        <v>9063.06</v>
+        <v>4541.25</v>
       </c>
       <c r="G39" s="5">
-        <v>44041.916562500002</v>
+        <v>44043.971087962964</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>19</v>
@@ -1920,21 +1918,21 @@
         <v>20</v>
       </c>
       <c r="D40" s="3">
-        <v>6.46</v>
+        <v>6.18</v>
       </c>
       <c r="E40" s="3">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="F40" s="4">
-        <v>1613.75</v>
+        <v>4635</v>
       </c>
       <c r="G40" s="5">
-        <v>44041.915694444448</v>
+        <v>44043.945833333331</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -1943,21 +1941,21 @@
         <v>20</v>
       </c>
       <c r="D41" s="3">
-        <v>6.5</v>
+        <v>6.54</v>
       </c>
       <c r="E41" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F41" s="4">
-        <v>1625</v>
+        <v>3270</v>
       </c>
       <c r="G41" s="5">
-        <v>44041.911828703705</v>
+        <v>44042.917905092596</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>19</v>
@@ -1966,16 +1964,16 @@
         <v>20</v>
       </c>
       <c r="D42" s="3">
-        <v>6.7</v>
+        <v>6.59</v>
       </c>
       <c r="E42" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F42" s="4">
-        <v>1339</v>
+        <v>2634</v>
       </c>
       <c r="G42" s="5">
-        <v>44037.085185185184</v>
+        <v>44042.916967592595</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1989,16 +1987,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="3">
-        <v>6.72</v>
+        <v>6.59</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1344</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>658.5</v>
       </c>
       <c r="G43" s="5">
-        <v>44036.997141203705</v>
+        <v>44042.916967592595</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2012,16 +2010,16 @@
         <v>20</v>
       </c>
       <c r="D44" s="3">
-        <v>6.63</v>
+        <v>6.52</v>
       </c>
       <c r="E44" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F44" s="4">
-        <v>5304</v>
+        <v>3257.5</v>
       </c>
       <c r="G44" s="5">
-        <v>44036.976782407408</v>
+        <v>44042.912858796299</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2035,16 +2033,16 @@
         <v>20</v>
       </c>
       <c r="D45" s="3">
-        <v>6.08</v>
+        <v>6.46</v>
       </c>
       <c r="E45" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F45" s="4">
-        <v>4864</v>
+        <v>3230</v>
       </c>
       <c r="G45" s="5">
-        <v>44034.00984953704</v>
+        <v>44042.910127314812</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2052,22 +2050,22 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6.28</v>
+        <v>16</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3035.59</v>
       </c>
       <c r="E46" s="3">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="F46" s="4">
-        <v>3140</v>
+        <v>9106.77</v>
       </c>
       <c r="G46" s="5">
-        <v>44032.961261574077</v>
+        <v>44042.899664351855</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2075,22 +2073,22 @@
         <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6.25</v>
+        <v>16</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3021.02</v>
       </c>
       <c r="E47" s="3">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="F47" s="4">
-        <v>3125</v>
+        <v>9063.06</v>
       </c>
       <c r="G47" s="5">
-        <v>44032.948900462965</v>
+        <v>44041.916562500002</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2104,16 +2102,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="3">
-        <v>6.54</v>
+        <v>6.46</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F48" s="4">
-        <v>3270</v>
+        <v>1613.75</v>
       </c>
       <c r="G48" s="5">
-        <v>44029.974907407406</v>
+        <v>44041.915694444448</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2127,16 +2125,16 @@
         <v>20</v>
       </c>
       <c r="D49" s="3">
-        <v>6.54</v>
+        <v>6.5</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F49" s="4">
-        <v>3270</v>
+        <v>1625</v>
       </c>
       <c r="G49" s="5">
-        <v>44029.968645833331</v>
+        <v>44041.911828703705</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2144,22 +2142,22 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D50" s="3">
-        <v>111.48</v>
+        <v>6.7</v>
       </c>
       <c r="E50" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F50" s="4">
-        <v>3344.4</v>
+        <v>1339</v>
       </c>
       <c r="G50" s="5">
-        <v>44029.967129629629</v>
+        <v>44037.085185185184</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2167,22 +2165,22 @@
         <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51" s="3">
-        <v>111.11</v>
+        <v>6.72</v>
       </c>
       <c r="E51" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F51" s="4">
-        <v>3333.3</v>
+        <v>1344</v>
       </c>
       <c r="G51" s="5">
-        <v>44029.963993055557</v>
+        <v>44036.997141203705</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2199,18 +2197,18 @@
         <v>6.63</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>663</v>
+        <v>800</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5304</v>
       </c>
       <c r="G52" s="5">
-        <v>44029.93645833333</v>
+        <v>44036.976782407408</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>19</v>
@@ -2219,16 +2217,16 @@
         <v>20</v>
       </c>
       <c r="D53" s="3">
-        <v>6.63</v>
+        <v>6.08</v>
       </c>
       <c r="E53" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F53" s="4">
-        <v>1326.54</v>
+        <v>4864</v>
       </c>
       <c r="G53" s="5">
-        <v>44029.93645833333</v>
+        <v>44034.00984953704</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2242,16 +2240,16 @@
         <v>20</v>
       </c>
       <c r="D54" s="3">
-        <v>6.63</v>
+        <v>6.28</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F54" s="4">
-        <v>1326.54</v>
+        <v>3140</v>
       </c>
       <c r="G54" s="5">
-        <v>44029.93645833333</v>
+        <v>44032.961261574077</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2265,21 +2263,21 @@
         <v>20</v>
       </c>
       <c r="D55" s="3">
-        <v>6.58</v>
+        <v>6.25</v>
       </c>
       <c r="E55" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F55" s="4">
-        <v>2630</v>
+        <v>3125</v>
       </c>
       <c r="G55" s="5">
-        <v>44029.931539351855</v>
+        <v>44032.948900462965</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>19</v>
@@ -2288,21 +2286,21 @@
         <v>20</v>
       </c>
       <c r="D56" s="3">
-        <v>6.58</v>
+        <v>6.54</v>
       </c>
       <c r="E56" s="3">
-        <v>100</v>
-      </c>
-      <c r="F56" s="3">
-        <v>657.5</v>
+        <v>500</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3270</v>
       </c>
       <c r="G56" s="5">
-        <v>44029.931539351855</v>
+        <v>44029.974907407406</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>19</v>
@@ -2311,85 +2309,85 @@
         <v>20</v>
       </c>
       <c r="D57" s="3">
-        <v>6.67</v>
+        <v>6.54</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="4">
-        <v>3335</v>
+        <v>3270</v>
       </c>
       <c r="G57" s="5">
-        <v>44028.92386574074</v>
+        <v>44029.968645833331</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" s="3">
-        <v>6.61</v>
+        <v>111.48</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="F58" s="4">
-        <v>3305</v>
+        <v>3344.4</v>
       </c>
       <c r="G58" s="5">
-        <v>44028.905682870369</v>
+        <v>44029.967129629629</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1513.2</v>
+        <v>22</v>
+      </c>
+      <c r="D59" s="3">
+        <v>111.11</v>
       </c>
       <c r="E59" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F59" s="4">
-        <v>3026.4</v>
+        <v>3333.3</v>
       </c>
       <c r="G59" s="5">
-        <v>44026.916134259256</v>
+        <v>44029.963993055557</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1526</v>
+        <v>20</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6.63</v>
       </c>
       <c r="E60" s="3">
-        <v>2</v>
-      </c>
-      <c r="F60" s="4">
-        <v>3052</v>
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>663</v>
       </c>
       <c r="G60" s="5">
-        <v>44026.915752314817</v>
+        <v>44029.93645833333</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2403,21 +2401,21 @@
         <v>20</v>
       </c>
       <c r="D61" s="3">
-        <v>6.86</v>
+        <v>6.63</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F61" s="4">
-        <v>3430.15</v>
+        <v>1326.54</v>
       </c>
       <c r="G61" s="5">
-        <v>44026.912754629629</v>
+        <v>44029.93645833333</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>19</v>
@@ -2426,39 +2424,39 @@
         <v>20</v>
       </c>
       <c r="D62" s="3">
-        <v>6.56</v>
+        <v>6.63</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F62" s="4">
-        <v>3280</v>
+        <v>1326.54</v>
       </c>
       <c r="G62" s="5">
-        <v>44026.907152777778</v>
+        <v>44029.93645833333</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1579</v>
+        <v>20</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6.58</v>
       </c>
       <c r="E63" s="3">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="F63" s="4">
-        <v>7895</v>
+        <v>2630</v>
       </c>
       <c r="G63" s="5">
-        <v>44026.904270833336</v>
+        <v>44029.931539351855</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2466,22 +2464,22 @@
         <v>14</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1571.61</v>
+        <v>20</v>
+      </c>
+      <c r="D64" s="3">
+        <v>6.58</v>
       </c>
       <c r="E64" s="3">
-        <v>5</v>
-      </c>
-      <c r="F64" s="4">
-        <v>7858.05</v>
+        <v>100</v>
+      </c>
+      <c r="F64" s="3">
+        <v>657.5</v>
       </c>
       <c r="G64" s="5">
-        <v>44026.902581018519</v>
+        <v>44029.931539351855</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2495,21 +2493,21 @@
         <v>20</v>
       </c>
       <c r="D65" s="3">
-        <v>7.8</v>
+        <v>6.67</v>
       </c>
       <c r="E65" s="3">
-        <v>100</v>
-      </c>
-      <c r="F65" s="3">
-        <v>780</v>
+        <v>500</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3335</v>
       </c>
       <c r="G65" s="5">
-        <v>44008.143067129633</v>
+        <v>44028.92386574074</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>19</v>
@@ -2518,159 +2516,159 @@
         <v>20</v>
       </c>
       <c r="D66" s="3">
-        <v>7.8</v>
+        <v>6.61</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>780</v>
+        <v>500</v>
+      </c>
+      <c r="F66" s="4">
+        <v>3305</v>
       </c>
       <c r="G66" s="5">
-        <v>44008.143067129633</v>
+        <v>44028.905682870369</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="3">
-        <v>7.99</v>
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1513.2</v>
       </c>
       <c r="E67" s="3">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F67" s="4">
-        <v>1598</v>
+        <v>3026.4</v>
       </c>
       <c r="G67" s="5">
-        <v>44007.953402777777</v>
+        <v>44026.916134259256</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68" s="4">
-        <v>2743.93</v>
+        <v>1526</v>
       </c>
       <c r="E68" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F68" s="4">
-        <v>13719.65</v>
+        <v>3052</v>
       </c>
       <c r="G68" s="5">
-        <v>44006.915833333333</v>
+        <v>44026.915752314817</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2466.9</v>
+        <v>20</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6.86</v>
       </c>
       <c r="E69" s="3">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F69" s="4">
-        <v>12334.5</v>
+        <v>3430.15</v>
       </c>
       <c r="G69" s="5">
-        <v>43987.948020833333</v>
+        <v>44026.912754629629</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="4">
-        <v>2385.0300000000002</v>
+        <v>20</v>
+      </c>
+      <c r="D70" s="3">
+        <v>6.56</v>
       </c>
       <c r="E70" s="3">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="F70" s="4">
-        <v>4770.0600000000004</v>
+        <v>3280</v>
       </c>
       <c r="G70" s="5">
-        <v>43979.889861111114</v>
+        <v>44026.907152777778</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D71" s="4">
-        <v>2333.21</v>
+        <v>1579</v>
       </c>
       <c r="E71" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F71" s="4">
-        <v>4666.42</v>
+        <v>7895</v>
       </c>
       <c r="G71" s="5">
-        <v>43956.993449074071</v>
+        <v>44026.904270833336</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="3">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1571.61</v>
       </c>
       <c r="E72" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F72" s="4">
-        <v>1050</v>
+        <v>7858.05</v>
       </c>
       <c r="G72" s="5">
-        <v>43917.91611111111</v>
+        <v>44026.902581018519</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>19</v>
@@ -2679,16 +2677,16 @@
         <v>20</v>
       </c>
       <c r="D73" s="3">
-        <v>20.89</v>
+        <v>7.8</v>
       </c>
       <c r="E73" s="3">
-        <v>50</v>
-      </c>
-      <c r="F73" s="4">
-        <v>1044.3699999999999</v>
+        <v>100</v>
+      </c>
+      <c r="F73" s="3">
+        <v>780</v>
       </c>
       <c r="G73" s="5">
-        <v>43917.89949074074</v>
+        <v>44008.143067129633</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2702,16 +2700,16 @@
         <v>20</v>
       </c>
       <c r="D74" s="3">
-        <v>21.49</v>
+        <v>7.8</v>
       </c>
       <c r="E74" s="3">
-        <v>125</v>
-      </c>
-      <c r="F74" s="4">
-        <v>2686.25</v>
+        <v>100</v>
+      </c>
+      <c r="F74" s="3">
+        <v>780</v>
       </c>
       <c r="G74" s="5">
-        <v>43916.920960648145</v>
+        <v>44008.143067129633</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2725,44 +2723,44 @@
         <v>20</v>
       </c>
       <c r="D75" s="3">
-        <v>23.1</v>
+        <v>7.99</v>
       </c>
       <c r="E75" s="3">
-        <v>25</v>
-      </c>
-      <c r="F75" s="3">
-        <v>577.38</v>
+        <v>200</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1598</v>
       </c>
       <c r="G75" s="5">
-        <v>43915.949328703704</v>
+        <v>44007.953402777777</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="3">
-        <v>23.67</v>
+        <v>16</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2743.93</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F76" s="4">
-        <v>2367</v>
+        <v>13719.65</v>
       </c>
       <c r="G76" s="5">
-        <v>43915.929328703707</v>
+        <v>44006.915833333333</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>15</v>
@@ -2771,16 +2769,16 @@
         <v>16</v>
       </c>
       <c r="D77" s="4">
-        <v>1900.08</v>
+        <v>2466.9</v>
       </c>
       <c r="E77" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F77" s="4">
-        <v>3800.16</v>
+        <v>12334.5</v>
       </c>
       <c r="G77" s="5">
-        <v>43915.924085648148</v>
+        <v>43987.948020833333</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2788,22 +2786,22 @@
         <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="3">
-        <v>246.64</v>
+        <v>16</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2385.0300000000002</v>
       </c>
       <c r="E78" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F78" s="4">
-        <v>1726.48</v>
+        <v>4770.0600000000004</v>
       </c>
       <c r="G78" s="5">
-        <v>43915.923680555556</v>
+        <v>43979.889861111114</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2811,623 +2809,30 @@
         <v>14</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="3">
-        <v>224.15</v>
+        <v>16</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2333.21</v>
       </c>
       <c r="E79" s="3">
-        <v>3</v>
-      </c>
-      <c r="F79" s="3">
-        <v>672.45</v>
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
+        <v>4666.42</v>
       </c>
       <c r="G79" s="5">
-        <v>43913.913819444446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="3">
-        <v>250.41</v>
-      </c>
-      <c r="E80" s="3">
-        <v>4</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1001.64</v>
-      </c>
-      <c r="G80" s="5">
-        <v>43909.930671296293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1773.14</v>
-      </c>
-      <c r="E81" s="3">
-        <v>2</v>
-      </c>
-      <c r="F81" s="4">
-        <v>3546.28</v>
-      </c>
-      <c r="G81" s="5">
-        <v>43907.952731481484</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="3">
-        <v>104.15</v>
-      </c>
-      <c r="E82" s="3">
-        <v>8</v>
-      </c>
-      <c r="F82" s="3">
-        <v>833.2</v>
-      </c>
-      <c r="G82" s="5">
-        <v>43899.898217592592</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1767.5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3</v>
-      </c>
-      <c r="F83" s="4">
-        <v>5302.5</v>
-      </c>
-      <c r="G83" s="5">
-        <v>43899.897581018522</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="3">
-        <v>123.6</v>
-      </c>
-      <c r="E84" s="3">
-        <v>8</v>
-      </c>
-      <c r="F84" s="3">
-        <v>988.8</v>
-      </c>
-      <c r="G84" s="5">
-        <v>43896.920300925929</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1852.81</v>
-      </c>
-      <c r="E85" s="3">
-        <v>2</v>
-      </c>
-      <c r="F85" s="4">
-        <v>3705.62</v>
-      </c>
-      <c r="G85" s="5">
-        <v>43829.984409722223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1825</v>
-      </c>
-      <c r="E86" s="3">
-        <v>5</v>
-      </c>
-      <c r="F86" s="4">
-        <v>9125</v>
-      </c>
-      <c r="G86" s="5">
-        <v>43724.875949074078</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1832.63</v>
-      </c>
-      <c r="E87" s="3">
-        <v>5</v>
-      </c>
-      <c r="F87" s="4">
-        <v>9163.15</v>
-      </c>
-      <c r="G87" s="5">
-        <v>43713.970092592594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="4">
-        <v>1775</v>
-      </c>
-      <c r="E88" s="3">
-        <v>5</v>
-      </c>
-      <c r="F88" s="4">
-        <v>8875</v>
-      </c>
-      <c r="G88" s="5">
-        <v>43682.941041666665</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="E89" s="3">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3">
-        <v>144</v>
-      </c>
-      <c r="G89" s="5">
-        <v>43599.898969907408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="3">
-        <v>10.14</v>
-      </c>
-      <c r="E90" s="3">
-        <v>50</v>
-      </c>
-      <c r="F90" s="3">
-        <v>507</v>
-      </c>
-      <c r="G90" s="5">
-        <v>43599.898379629631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="3">
-        <v>27</v>
-      </c>
-      <c r="E91" s="3">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3">
-        <v>270</v>
-      </c>
-      <c r="G91" s="5">
-        <v>43599.898182870369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="3">
-        <v>24.74</v>
-      </c>
-      <c r="E92" s="3">
-        <v>10</v>
-      </c>
-      <c r="F92" s="3">
-        <v>247.39</v>
-      </c>
-      <c r="G92" s="5">
-        <v>43565.074594907404</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="3">
-        <v>13.26</v>
-      </c>
-      <c r="E93" s="3">
-        <v>10</v>
-      </c>
-      <c r="F93" s="3">
-        <v>132.6</v>
-      </c>
-      <c r="G93" s="5">
-        <v>43565.073865740742</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>50</v>
-      </c>
-      <c r="F94" s="3">
-        <v>470</v>
-      </c>
-      <c r="G94" s="5">
-        <v>43565.071921296294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="E95" s="3">
-        <v>20</v>
-      </c>
-      <c r="F95" s="3">
-        <v>336</v>
-      </c>
-      <c r="G95" s="5">
-        <v>43549.944953703707</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" s="3">
-        <v>19.02</v>
-      </c>
-      <c r="E96" s="3">
-        <v>20</v>
-      </c>
-      <c r="F96" s="3">
-        <v>380.4</v>
-      </c>
-      <c r="G96" s="5">
-        <v>43542.973993055559</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="3">
-        <v>11.96</v>
-      </c>
-      <c r="E97" s="3">
-        <v>75</v>
-      </c>
-      <c r="F97" s="3">
-        <v>897</v>
-      </c>
-      <c r="G97" s="5">
-        <v>43509.026967592596</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="E98" s="3">
-        <v>15</v>
-      </c>
-      <c r="F98" s="3">
-        <v>214.5</v>
-      </c>
-      <c r="G98" s="5">
-        <v>43480.95521990741</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="3">
-        <v>15</v>
-      </c>
-      <c r="E99" s="3">
-        <v>9</v>
-      </c>
-      <c r="F99" s="3">
-        <v>135</v>
-      </c>
-      <c r="G99" s="5">
-        <v>43479.96366898148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="3">
-        <v>15</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>15</v>
-      </c>
-      <c r="G100" s="5">
-        <v>43479.963356481479</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="3">
-        <v>15.47</v>
-      </c>
-      <c r="E101" s="3">
-        <v>15</v>
-      </c>
-      <c r="F101" s="3">
-        <v>232.05</v>
-      </c>
-      <c r="G101" s="5">
-        <v>43473.996423611112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="3">
-        <v>18.02</v>
-      </c>
-      <c r="E102" s="3">
-        <v>15</v>
-      </c>
-      <c r="F102" s="3">
-        <v>270.3</v>
-      </c>
-      <c r="G102" s="5">
-        <v>43461.937094907407</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="3">
-        <v>20.12</v>
-      </c>
-      <c r="E103" s="3">
-        <v>20</v>
-      </c>
-      <c r="F103" s="3">
-        <v>402.35</v>
-      </c>
-      <c r="G103" s="5">
-        <v>43460.954594907409</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="3">
-        <v>135.55000000000001</v>
-      </c>
-      <c r="E104" s="3">
-        <v>2</v>
-      </c>
-      <c r="F104" s="3">
-        <v>271.10000000000002</v>
-      </c>
-      <c r="G104" s="5">
-        <v>43312.893020833333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D105" s="3">
-        <v>139</v>
-      </c>
-      <c r="E105" s="3">
-        <v>2</v>
-      </c>
-      <c r="F105" s="3">
-        <v>278</v>
-      </c>
-      <c r="G105" s="5">
-        <v>43278.921759259261</v>
+        <v>43956.993449074071</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G79" xr:uid="{E461205F-09DA-4048-B7BD-EEB2DEDD1355}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G79">
+      <sortCondition descending="1" ref="G1:G79"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3435,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12613CD9-D9CB-4A12-B888-FC58B278FE71}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,37 +2858,37 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3491,10 +2896,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
@@ -3521,7 +2926,7 @@
         <v>-50.54</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3529,10 +2934,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D3" s="17">
         <v>-1</v>
@@ -3559,7 +2964,7 @@
         <v>47.08</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3567,10 +2972,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -3597,18 +3002,18 @@
         <v>20.94</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" s="22">
         <v>20</v>
@@ -3635,18 +3040,18 @@
         <v>13.8</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D6" s="17">
         <v>-20</v>
@@ -3673,18 +3078,18 @@
         <v>-61</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D7" s="22">
         <v>15</v>
@@ -3711,18 +3116,18 @@
         <v>2.7</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
@@ -3749,18 +3154,18 @@
         <v>-22.35</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D9" s="17">
         <v>-5</v>
@@ -3787,18 +3192,18 @@
         <v>-19.149999999999999</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>
@@ -3825,18 +3230,18 @@
         <v>-1.2</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D11" s="17">
         <v>-5</v>
@@ -3863,7 +3268,7 @@
         <v>-24.75</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3871,10 +3276,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D12" s="22">
         <v>10</v>
@@ -3901,7 +3306,7 @@
         <v>-16.399999999999999</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3909,10 +3314,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D13" s="17">
         <v>-10</v>
@@ -3939,7 +3344,7 @@
         <v>-103.9</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3947,10 +3352,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
@@ -3977,7 +3382,7 @@
         <v>51.76</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3985,10 +3390,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D15" s="17">
         <v>-1</v>
@@ -4015,7 +3420,7 @@
         <v>-15.89</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4023,10 +3428,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D16" s="22">
         <v>2</v>
@@ -4053,7 +3458,7 @@
         <v>-14.94</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4061,10 +3466,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D17" s="27">
         <v>-2</v>
@@ -4091,7 +3496,7 @@
         <v>-88.64</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4099,10 +3504,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18" s="36">
         <v>5</v>
@@ -4129,18 +3534,18 @@
         <v>-19.399999999999999</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D19" s="36">
         <v>5</v>
@@ -4167,7 +3572,7 @@
         <v>-11</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4175,10 +3580,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D20" s="36">
         <v>1</v>
@@ -4205,7 +3610,7 @@
         <v>-27.6</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4213,10 +3618,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D21" s="40">
         <v>10</v>
@@ -4243,7 +3648,7 @@
         <v>12.5</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4251,10 +3656,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D22" s="45">
         <v>5</v>
@@ -4281,7 +3686,197 @@
         <v>-12.8</v>
       </c>
       <c r="L22" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="49">
+        <v>-20</v>
+      </c>
+      <c r="E23" s="49">
+        <v>106.46</v>
+      </c>
+      <c r="F23" s="49">
+        <v>110.08</v>
+      </c>
+      <c r="G23" s="50">
+        <v>2129.1999999999998</v>
+      </c>
+      <c r="H23" s="49">
+        <v>-1.05</v>
+      </c>
+      <c r="I23" s="50">
+        <v>-2294.1999999999998</v>
+      </c>
+      <c r="J23" s="49">
+        <v>-166.05</v>
+      </c>
+      <c r="K23" s="49">
+        <v>-72.400000000000006</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="49">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="50">
+        <v>2900.35</v>
+      </c>
+      <c r="F24" s="50">
+        <v>2960.47</v>
+      </c>
+      <c r="G24" s="50">
+        <v>2900.35</v>
+      </c>
+      <c r="H24" s="49">
+        <v>-1.06</v>
+      </c>
+      <c r="I24" s="50">
+        <v>-3128.22</v>
+      </c>
+      <c r="J24" s="49">
+        <v>-228.93</v>
+      </c>
+      <c r="K24" s="49">
+        <v>-60.12</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
         <v>36</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="49">
+        <v>-15</v>
+      </c>
+      <c r="E25" s="49">
+        <v>77.7</v>
+      </c>
+      <c r="F25" s="49">
+        <v>78.38</v>
+      </c>
+      <c r="G25" s="50">
+        <v>1165.5</v>
+      </c>
+      <c r="H25" s="49">
+        <v>-1.03</v>
+      </c>
+      <c r="I25" s="50">
+        <v>-1243</v>
+      </c>
+      <c r="J25" s="49">
+        <v>-78.53</v>
+      </c>
+      <c r="K25" s="49">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="49">
+        <v>-5</v>
+      </c>
+      <c r="E26" s="49">
+        <v>93.11</v>
+      </c>
+      <c r="F26" s="49">
+        <v>94.8</v>
+      </c>
+      <c r="G26" s="49">
+        <v>465.55</v>
+      </c>
+      <c r="H26" s="49">
+        <v>-1.01</v>
+      </c>
+      <c r="I26" s="49">
+        <v>-440</v>
+      </c>
+      <c r="J26" s="49">
+        <v>24.54</v>
+      </c>
+      <c r="K26" s="49">
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="49">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="49">
+        <v>898</v>
+      </c>
+      <c r="F27" s="49">
+        <v>927.89</v>
+      </c>
+      <c r="G27" s="49">
+        <v>898</v>
+      </c>
+      <c r="H27" s="49">
+        <v>-1.02</v>
+      </c>
+      <c r="I27" s="49">
+        <v>-946</v>
+      </c>
+      <c r="J27" s="49">
+        <v>-49.02</v>
+      </c>
+      <c r="K27" s="49">
+        <v>-29.89</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4292,10 +3887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1C532D-B31C-4B51-A498-EC6F2F7FA425}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,7 +3901,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>0</v>
@@ -4363,7 +3958,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
@@ -4380,7 +3975,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D5" s="30">
         <v>1</v>
@@ -4397,7 +3992,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -4414,7 +4009,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D7" s="30">
         <v>1</v>
@@ -4431,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D8" s="30">
         <v>7</v>
@@ -4465,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D10" s="30">
         <v>20</v>
@@ -4482,7 +4077,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D11" s="30">
         <v>10</v>
@@ -4493,19 +4088,87 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D12" s="30">
         <v>8</v>
       </c>
       <c r="E12" s="30">
         <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>44097</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2922.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>44097</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>44097</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>37.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>44097</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1433.44</v>
       </c>
     </row>
   </sheetData>
